--- a/AMZN_Assumptions_Pack_FY23-30.xlsx
+++ b/AMZN_Assumptions_Pack_FY23-30.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lsecloud-my.sharepoint.com/personal/s_sapkota2_lse_ac_uk/Documents/work - modelling - WSP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lsecloud-my.sharepoint.com/personal/s_sapkota2_lse_ac_uk/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{CB0D2994-FA5B-4943-B3B6-4AFC2D4DF825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{705857BF-CE7B-4D97-A6B4-185DF52F4AB6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFBA8DE0-1CC3-47FE-B451-620642622BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7B3C8342-E041-4583-B7CA-A8F70778864C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{7B3C8342-E041-4583-B7CA-A8F70778864C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Assumptions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -265,15 +265,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -300,11 +299,11 @@
     <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -669,29 +668,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE9390B-F98D-4F25-96B4-836F9C1B938B}">
-  <dimension ref="C1:M43"/>
+  <dimension ref="B1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="2.28515625" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.5703125" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.265625" customWidth="1"/>
+    <col min="2" max="2" width="48.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" customWidth="1"/>
+    <col min="4" max="10" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.59765625" customWidth="1"/>
+    <col min="12" max="12" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="1" t="str">
+    <row r="1" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="1" t="str">
         <f>"Financial Statement Model Assumptions for Amazon"</f>
         <v>Financial Statement Model Assumptions for Amazon</v>
       </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -699,745 +696,692 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="8">
+      <c r="C4" s="7">
         <v>210.32</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9">
+      <c r="C5" s="8">
         <v>46059</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-    </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C6" s="10" t="s">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="11">
+      <c r="C6" s="10">
         <v>46022</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12">
+      <c r="C7" s="11">
         <v>10734.92087</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="13" t="s">
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="14">
+      <c r="C10" s="13">
+        <f>D10-1</f>
+        <v>2023</v>
+      </c>
+      <c r="D10" s="13">
         <f>E10-1</f>
-        <v>2023</v>
-      </c>
-      <c r="E10" s="14">
-        <f>F10-1</f>
         <v>2024</v>
       </c>
+      <c r="E10" s="13">
+        <f>YEAR(C6)</f>
+        <v>2025</v>
+      </c>
       <c r="F10" s="14">
-        <f>YEAR(D6)</f>
-        <v>2025</v>
-      </c>
-      <c r="G10" s="15">
+        <f>E10+1</f>
+        <v>2026</v>
+      </c>
+      <c r="G10" s="14">
         <f>F10+1</f>
-        <v>2026</v>
-      </c>
-      <c r="H10" s="15">
+        <v>2027</v>
+      </c>
+      <c r="H10" s="14">
         <f>G10+1</f>
-        <v>2027</v>
-      </c>
-      <c r="I10" s="15">
+        <v>2028</v>
+      </c>
+      <c r="I10" s="14">
         <f>H10+1</f>
-        <v>2028</v>
-      </c>
-      <c r="J10" s="15">
+        <v>2029</v>
+      </c>
+      <c r="J10" s="14">
         <f>I10+1</f>
-        <v>2029</v>
-      </c>
-      <c r="K10" s="15">
-        <f>J10+1</f>
         <v>2030</v>
       </c>
     </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="6" t="s">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="7">
+      <c r="C11" s="6">
+        <f>EOMONTH(D11,-12)</f>
+        <v>45291</v>
+      </c>
+      <c r="D11" s="6">
         <f>EOMONTH(E11,-12)</f>
-        <v>45291</v>
-      </c>
-      <c r="E11" s="7">
-        <f>EOMONTH(F11,-12)</f>
         <v>45657</v>
       </c>
-      <c r="F11" s="7">
-        <f>D6</f>
+      <c r="E11" s="6">
+        <f>C6</f>
         <v>46022</v>
       </c>
-      <c r="G11" s="7">
+      <c r="F11" s="6">
+        <f>EOMONTH(E11,12)</f>
+        <v>46387</v>
+      </c>
+      <c r="G11" s="6">
         <f>EOMONTH(F11,12)</f>
-        <v>46387</v>
-      </c>
-      <c r="H11" s="7">
+        <v>46752</v>
+      </c>
+      <c r="H11" s="6">
         <f>EOMONTH(G11,12)</f>
-        <v>46752</v>
-      </c>
-      <c r="I11" s="7">
+        <v>47118</v>
+      </c>
+      <c r="I11" s="6">
         <f>EOMONTH(H11,12)</f>
-        <v>47118</v>
-      </c>
-      <c r="J11" s="7">
+        <v>47483</v>
+      </c>
+      <c r="J11" s="6">
         <f>EOMONTH(I11,12)</f>
-        <v>47483</v>
-      </c>
-      <c r="K11" s="7">
-        <f>EOMONTH(J11,12)</f>
         <v>47848</v>
       </c>
     </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B12" s="23"/>
       <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="M12" s="36" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="L12" s="35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="31" t="s">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B13" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B14" s="23"/>
       <c r="C14" s="24"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="26">
+      <c r="C15" s="25">
         <v>-767</v>
       </c>
-      <c r="E15" s="26">
+      <c r="D15" s="25">
         <v>-763</v>
       </c>
+      <c r="E15" s="25">
+        <v>-4639</v>
+      </c>
       <c r="F15" s="26">
-        <v>-4639</v>
-      </c>
-      <c r="G15" s="27">
-        <f>D15</f>
+        <f>C15</f>
         <v>-767</v>
       </c>
-      <c r="H15" s="27">
+      <c r="G15" s="26">
+        <f>F15</f>
+        <v>-767</v>
+      </c>
+      <c r="H15" s="26">
         <f>G15</f>
         <v>-767</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="26">
         <f>H15</f>
         <v>-767</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="26">
         <f>I15</f>
         <v>-767</v>
       </c>
-      <c r="K15" s="27">
-        <f>J15</f>
-        <v>-767</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="L15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="26">
+      <c r="C16" s="25">
         <v>-12</v>
       </c>
-      <c r="E16" s="26">
+      <c r="D16" s="25">
         <v>-101</v>
       </c>
-      <c r="F16" s="26">
+      <c r="E16" s="25">
         <v>-554</v>
       </c>
-      <c r="G16" s="28">
+      <c r="F16" s="27">
         <v>0</v>
       </c>
-      <c r="H16" s="28">
-        <f>G16</f>
+      <c r="G16" s="27">
+        <f>F16</f>
         <v>0</v>
       </c>
-      <c r="I16" s="28">
+      <c r="H16" s="27">
         <v>0</v>
       </c>
-      <c r="J16" s="28">
+      <c r="I16" s="27">
         <v>0</v>
       </c>
-      <c r="K16" s="28">
+      <c r="J16" s="27">
         <v>0</v>
       </c>
-      <c r="M16" t="s">
+      <c r="L16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C17" s="24"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C18" s="18" t="s">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B17" s="23"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B18" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="29"/>
-      <c r="M18" s="18"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C19" s="3" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G19" s="16">
+      <c r="F19" s="15">
         <v>0.1229</v>
       </c>
-      <c r="H19" s="16">
+      <c r="G19" s="15">
         <v>0.1124</v>
       </c>
+      <c r="H19" s="15">
+        <v>0.12690000000000001</v>
+      </c>
       <c r="I19" s="16">
+        <f t="shared" ref="I19:J23" si="0">H19</f>
         <v>0.12690000000000001</v>
       </c>
-      <c r="J19" s="17">
-        <f>I19</f>
+      <c r="J19" s="16">
+        <f t="shared" si="0"/>
         <v>0.12690000000000001</v>
       </c>
-      <c r="K19" s="17">
-        <f>J19</f>
-        <v>0.12690000000000001</v>
-      </c>
-      <c r="M19" t="s">
+      <c r="L19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C20" s="3" t="s">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="16">
+      <c r="F20" s="15">
         <v>0.35099999999999998</v>
       </c>
-      <c r="H20" s="16">
+      <c r="G20" s="15">
         <v>0.36</v>
       </c>
+      <c r="H20" s="15">
+        <v>0.37</v>
+      </c>
       <c r="I20" s="16">
+        <f t="shared" si="0"/>
         <v>0.37</v>
       </c>
-      <c r="J20" s="17">
-        <f>I20</f>
+      <c r="J20" s="16">
+        <f t="shared" si="0"/>
         <v>0.37</v>
       </c>
-      <c r="K20" s="17">
-        <f>J20</f>
-        <v>0.37</v>
-      </c>
-      <c r="M20" t="s">
+      <c r="L20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C21" s="3" t="s">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="16">
+      <c r="F21" s="15">
         <v>0.15</v>
       </c>
-      <c r="H21" s="16">
+      <c r="G21" s="15">
         <v>0.155</v>
       </c>
+      <c r="H21" s="15">
+        <v>0.157</v>
+      </c>
       <c r="I21" s="16">
+        <f t="shared" si="0"/>
         <v>0.157</v>
       </c>
-      <c r="J21" s="17">
-        <f>I21</f>
+      <c r="J21" s="16">
+        <f t="shared" si="0"/>
         <v>0.157</v>
       </c>
-      <c r="K21" s="17">
-        <f>J21</f>
-        <v>0.157</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="L21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C22" s="3" t="s">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="16">
+      <c r="F22" s="15">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="H22" s="16">
+      <c r="G22" s="15">
         <v>7.4700000000000003E-2</v>
       </c>
+      <c r="H22" s="15">
+        <v>6.6000000000000003E-2</v>
+      </c>
       <c r="I22" s="16">
+        <f t="shared" si="0"/>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="J22" s="17">
-        <f>I22</f>
+      <c r="J22" s="16">
+        <f t="shared" si="0"/>
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="K22" s="17">
-        <f>J22</f>
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="M22" t="s">
+      <c r="L22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="3" t="s">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="16">
+      <c r="F23" s="15">
         <v>0.18540000000000001</v>
       </c>
-      <c r="H23" s="16">
+      <c r="G23" s="15">
         <v>0.1875</v>
       </c>
+      <c r="H23" s="15">
+        <v>0.186</v>
+      </c>
       <c r="I23" s="16">
+        <f t="shared" si="0"/>
         <v>0.186</v>
       </c>
-      <c r="J23" s="17">
-        <f>I23</f>
+      <c r="J23" s="16">
+        <f t="shared" si="0"/>
         <v>0.186</v>
       </c>
-      <c r="K23" s="17">
-        <f>J23</f>
-        <v>0.186</v>
-      </c>
-      <c r="M23" t="s">
+      <c r="L23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="24"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="31" t="s">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B24" s="23"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B25" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="24"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="30" t="s">
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="31"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B26" s="23"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B27" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26">
+      <c r="C27" s="25"/>
+      <c r="D27" s="25">
         <v>78277</v>
       </c>
-      <c r="F27" s="26">
+      <c r="E27" s="25">
         <v>87339</v>
       </c>
-      <c r="G27" s="29">
+      <c r="F27" s="28">
+        <f>E27</f>
+        <v>87339</v>
+      </c>
+      <c r="G27" s="28">
         <f>F27</f>
         <v>87339</v>
       </c>
-      <c r="H27" s="29">
+      <c r="H27" s="28">
         <f>G27</f>
         <v>87339</v>
       </c>
-      <c r="I27" s="29">
+      <c r="I27" s="28">
         <f>H27</f>
         <v>87339</v>
       </c>
-      <c r="J27" s="29">
+      <c r="J27" s="28">
         <f>I27</f>
         <v>87339</v>
       </c>
-      <c r="K27" s="29">
-        <f>J27</f>
-        <v>87339</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="L27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="30" t="s">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B28" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26">
+      <c r="C28" s="25"/>
+      <c r="D28" s="25">
         <v>52623</v>
       </c>
-      <c r="F28" s="26">
+      <c r="E28" s="25">
         <v>65648</v>
       </c>
-      <c r="G28" s="29">
-        <f>F28</f>
+      <c r="F28" s="28">
+        <f>E28</f>
         <v>65648</v>
       </c>
-      <c r="H28" s="29">
-        <f t="shared" ref="H28:K28" si="0">G28</f>
+      <c r="G28" s="28">
+        <f t="shared" ref="G28:J28" si="1">F28</f>
         <v>65648</v>
       </c>
-      <c r="I28" s="29">
-        <f t="shared" si="0"/>
+      <c r="H28" s="28">
+        <f t="shared" si="1"/>
         <v>65648</v>
       </c>
-      <c r="J28" s="29">
-        <f t="shared" si="0"/>
+      <c r="I28" s="28">
+        <f t="shared" si="1"/>
         <v>65648</v>
       </c>
-      <c r="K28" s="29">
-        <f t="shared" si="0"/>
+      <c r="J28" s="28">
+        <f t="shared" si="1"/>
         <v>65648</v>
       </c>
-      <c r="M28" t="s">
+      <c r="L28" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="30"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C30" s="30" t="s">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B29" s="29"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B30" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26">
+      <c r="C30" s="25"/>
+      <c r="D30" s="25">
         <v>-7837</v>
       </c>
-      <c r="F30" s="26">
+      <c r="E30" s="25">
         <v>-7837</v>
       </c>
-      <c r="G30" s="29">
-        <f>F30</f>
+      <c r="F30" s="28">
+        <f t="shared" ref="F30:J31" si="2">E30</f>
         <v>-7837</v>
       </c>
-      <c r="H30" s="29">
-        <f>G30</f>
+      <c r="G30" s="28">
+        <f t="shared" si="2"/>
         <v>-7837</v>
       </c>
-      <c r="I30" s="29">
-        <f>H30</f>
+      <c r="H30" s="28">
+        <f t="shared" si="2"/>
         <v>-7837</v>
       </c>
-      <c r="J30" s="29">
-        <f>I30</f>
+      <c r="I30" s="28">
+        <f t="shared" si="2"/>
         <v>-7837</v>
       </c>
-      <c r="K30" s="29">
-        <f>J30</f>
+      <c r="J30" s="28">
+        <f t="shared" si="2"/>
         <v>-7837</v>
       </c>
-      <c r="M30" t="s">
+      <c r="L30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="30" t="s">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B31" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26">
+      <c r="C31" s="25"/>
+      <c r="D31" s="25">
         <v>120864</v>
       </c>
-      <c r="F31" s="26">
+      <c r="E31" s="25">
         <v>140024</v>
       </c>
-      <c r="G31" s="29">
-        <f>F31</f>
+      <c r="F31" s="28">
+        <f t="shared" si="2"/>
         <v>140024</v>
       </c>
-      <c r="H31" s="29">
-        <f>G31</f>
+      <c r="G31" s="28">
+        <f t="shared" si="2"/>
         <v>140024</v>
       </c>
-      <c r="I31" s="29">
-        <f>H31</f>
+      <c r="H31" s="28">
+        <f t="shared" si="2"/>
         <v>140024</v>
       </c>
-      <c r="J31" s="29">
-        <f>I31</f>
+      <c r="I31" s="28">
+        <f t="shared" si="2"/>
         <v>140024</v>
       </c>
-      <c r="K31" s="29">
-        <f>J31</f>
+      <c r="J31" s="28">
+        <f t="shared" si="2"/>
         <v>140024</v>
       </c>
-      <c r="M31" t="s">
+      <c r="L31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="30"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-    </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C33" s="31" t="s">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B32" s="29"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B33" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="33"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-    </row>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C35" s="3" t="s">
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B35" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="C35" s="18">
+        <v>0.03</v>
       </c>
       <c r="D35" s="19">
         <v>0.03</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="19">
         <v>0.03</v>
       </c>
       <c r="F35" s="20">
+        <f>E35</f>
         <v>0.03</v>
       </c>
-      <c r="G35" s="21">
+      <c r="G35" s="20">
         <f>F35</f>
         <v>0.03</v>
       </c>
-      <c r="H35" s="21">
+      <c r="H35" s="20">
         <f>G35</f>
         <v>0.03</v>
       </c>
-      <c r="I35" s="21">
+      <c r="I35" s="20">
         <f>H35</f>
         <v>0.03</v>
       </c>
-      <c r="J35" s="21">
+      <c r="J35" s="20">
         <f>I35</f>
         <v>0.03</v>
       </c>
-      <c r="K35" s="21">
-        <f>J35</f>
-        <v>0.03</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="L35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C36" s="3"/>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B36" s="3"/>
+      <c r="C36" s="18"/>
       <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-    </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C37" s="31" t="s">
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B37" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-    </row>
-    <row r="38" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B38" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="22">
+      <c r="F38" s="21">
         <v>210</v>
       </c>
-      <c r="M38" t="s">
+      <c r="L38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B39" t="s">
         <v>14</v>
       </c>
-      <c r="H39" s="23">
+      <c r="G39" s="22">
         <v>0.15</v>
       </c>
-      <c r="I39" s="23">
+      <c r="H39" s="22">
+        <f>G39</f>
+        <v>0.15</v>
+      </c>
+      <c r="I39" s="22">
         <f>H39</f>
         <v>0.15</v>
       </c>
-      <c r="J39" s="23">
+      <c r="J39" s="22">
         <f>I39</f>
         <v>0.15</v>
       </c>
-      <c r="K39" s="23">
-        <f>J39</f>
-        <v>0.15</v>
-      </c>
-      <c r="M39" t="s">
+      <c r="L39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C43" s="4"/>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B43" s="4"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C22">
+  <conditionalFormatting sqref="B22">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>#REF!=$C22</formula>
+      <formula>#REF!=$B22</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
